--- a/doc/14_内部設計/03_ファイル構成一覧表_C2_パラパラチャーハン.xlsx
+++ b/doc/14_内部設計/03_ファイル構成一覧表_C2_パラパラチャーハン.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\C2\doc\PlusDojo6月作成ドキュメントテンプレート\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\C2\doc\14_内部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DED4FB7-D1EC-48FC-864D-ADF2626260C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A3ABF21-9C9C-4CBD-82D9-66D357433AD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="288" yWindow="252" windowWidth="15564" windowHeight="11988" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
+    <workbookView xWindow="240" yWindow="372" windowWidth="12444" windowHeight="11988" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="103">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -472,6 +472,443 @@
   </si>
   <si>
     <t>ItemsDAO.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Accountsテーブルアクセス用DAO。</t>
+    <rPh sb="16" eb="17">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Groupsテーブルアクセス用DAO。</t>
+    <rPh sb="14" eb="15">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Tasksテーブルアクセス用DAO。</t>
+    <rPh sb="13" eb="14">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Schedulesテーブルアクセス用DAO。</t>
+    <rPh sb="17" eb="18">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Manualsテーブルアクセス用DAO。</t>
+    <rPh sb="15" eb="16">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Itemsテーブルアクセス用DAO。</t>
+    <rPh sb="13" eb="14">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>model</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Accounts.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Groups.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Tasks.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Schedules.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Manuals.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Items.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Accountsテーブルのデータ保持用クラス。</t>
+    <rPh sb="16" eb="18">
+      <t>ホジ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Groupsテーブルのデータ保持用クラス。</t>
+    <rPh sb="14" eb="16">
+      <t>ホジ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Tasksテーブルのデータ保持用クラス。</t>
+    <rPh sb="13" eb="15">
+      <t>ホジ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Schedulesテーブルのデータ保持用クラス。</t>
+    <rPh sb="17" eb="19">
+      <t>ホジ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Manualsテーブルのデータ保持用クラス。</t>
+    <rPh sb="15" eb="17">
+      <t>ホジ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Itemsテーブルのデータ保持用クラス。</t>
+    <rPh sb="13" eb="15">
+      <t>ホジ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LoginUser.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LoginUserのデータ保持用クラス。</t>
+    <rPh sb="13" eb="15">
+      <t>ホジ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WebContent/WEB-INF/jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>login.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン画面用jsp。</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>create_account.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>create_account_result.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>manual.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>manual_search_result.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>manual_resist.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>manual_update.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>task.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>task_search_result.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>task_resist.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>task_update.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>account_update.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>group.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>create_group.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>group_update.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マニュアル画面用jsp。</t>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マニュアル更新削除画面用jsp。</t>
+    <rPh sb="5" eb="7">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タスク画面用jsp。</t>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タスク検索結果画面用jsp。</t>
+    <rPh sb="3" eb="5">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マニュアル検索結果画面用jsp。</t>
+    <rPh sb="5" eb="7">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マニュアル更新削除画面用jsp。</t>
+    <rPh sb="5" eb="9">
+      <t>コウシンサクジョ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント更新削除画面用jsp。</t>
+    <rPh sb="5" eb="7">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>グループ画面用jsp。</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>グループ更新削除画面用jsp。</t>
+    <rPh sb="4" eb="8">
+      <t>コウシンサクジョ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>schedule_update.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>schedule_resist.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント新規登録画面用jsp。</t>
+    <rPh sb="5" eb="7">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント新規登録結果画面用jsp。</t>
+    <rPh sb="5" eb="7">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マニュアル新規登録画面用jsp。</t>
+    <rPh sb="5" eb="7">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>グループ新規登録画面用jsp。</t>
+    <rPh sb="4" eb="6">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スケジュール新規登録画面用jsp。</t>
+    <rPh sb="6" eb="10">
+      <t>シンキトウロク</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>ガメンヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スケジュール更新削除画面用jsp。</t>
+    <rPh sb="6" eb="10">
+      <t>コウシンサクジョ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>ガメンヨウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -496,7 +933,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -509,8 +946,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -533,13 +988,190 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -551,6 +1183,72 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -866,15 +1564,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:AB45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="B21" zoomScale="71" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="0" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="8.796875" style="15"/>
     <col min="4" max="4" width="9.69921875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="26.09765625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26.69921875" customWidth="1"/>
@@ -882,15 +1581,18 @@
     <col min="8" max="9" width="13" bestFit="1" customWidth="1"/>
     <col min="10" max="13" width="13" customWidth="1"/>
     <col min="14" max="14" width="16.09765625" customWidth="1"/>
+    <col min="15" max="15" width="8.796875" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="C2" s="2" t="s">
+      <c r="B1"/>
+      <c r="O1"/>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.45">
+      <c r="C2" s="10" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -923,15 +1625,15 @@
       <c r="M2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="N2" s="16" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="36" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:28" ht="36" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="11">
         <f>ROW()-2</f>
         <v>1</v>
       </c>
@@ -953,14 +1655,14 @@
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-    </row>
-    <row r="4" spans="1:14" ht="36" x14ac:dyDescent="0.45">
+      <c r="N3" s="17"/>
+    </row>
+    <row r="4" spans="1:28" ht="36" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="1">
-        <f t="shared" ref="C4:C25" si="0">ROW()-2</f>
+      <c r="C4" s="11">
+        <f t="shared" ref="C4:C40" si="0">ROW()-2</f>
         <v>2</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -981,13 +1683,13 @@
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-    </row>
-    <row r="5" spans="1:14" ht="36" x14ac:dyDescent="0.45">
+      <c r="N4" s="17"/>
+    </row>
+    <row r="5" spans="1:28" ht="36" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="11">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -1009,10 +1711,10 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="C6" s="1">
+      <c r="N5" s="17"/>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.45">
+      <c r="C6" s="11">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -1034,10 +1736,10 @@
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-    </row>
-    <row r="7" spans="1:14" ht="36" x14ac:dyDescent="0.45">
-      <c r="C7" s="1">
+      <c r="N6" s="17"/>
+    </row>
+    <row r="7" spans="1:28" ht="36" x14ac:dyDescent="0.45">
+      <c r="C7" s="11">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -1059,10 +1761,10 @@
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-    </row>
-    <row r="8" spans="1:14" ht="36" x14ac:dyDescent="0.45">
-      <c r="C8" s="1">
+      <c r="N7" s="17"/>
+    </row>
+    <row r="8" spans="1:28" ht="36" x14ac:dyDescent="0.45">
+      <c r="C8" s="11">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
@@ -1084,10 +1786,10 @@
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="C9" s="1">
+      <c r="N8" s="17"/>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.45">
+      <c r="C9" s="11">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
@@ -1109,10 +1811,10 @@
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-    </row>
-    <row r="10" spans="1:14" ht="36" x14ac:dyDescent="0.45">
-      <c r="C10" s="1">
+      <c r="N9" s="17"/>
+    </row>
+    <row r="10" spans="1:28" ht="36" x14ac:dyDescent="0.45">
+      <c r="C10" s="11">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
@@ -1134,10 +1836,10 @@
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-    </row>
-    <row r="11" spans="1:14" ht="36" x14ac:dyDescent="0.45">
-      <c r="C11" s="1">
+      <c r="N10" s="17"/>
+    </row>
+    <row r="11" spans="1:28" ht="36" x14ac:dyDescent="0.45">
+      <c r="C11" s="11">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
@@ -1159,10 +1861,10 @@
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-    </row>
-    <row r="12" spans="1:14" ht="36" x14ac:dyDescent="0.45">
-      <c r="C12" s="1">
+      <c r="N11" s="17"/>
+    </row>
+    <row r="12" spans="1:28" ht="36" x14ac:dyDescent="0.45">
+      <c r="C12" s="11">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
@@ -1184,10 +1886,10 @@
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="C13" s="1">
+      <c r="N12" s="17"/>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.45">
+      <c r="C13" s="11">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
@@ -1209,83 +1911,100 @@
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-    </row>
-    <row r="14" spans="1:14" ht="36" x14ac:dyDescent="0.45">
-      <c r="C14" s="1">
+      <c r="N13" s="17"/>
+    </row>
+    <row r="14" spans="1:28" ht="36" x14ac:dyDescent="0.45">
+      <c r="C14" s="12">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F14" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="G14" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-    </row>
-    <row r="15" spans="1:14" ht="72" x14ac:dyDescent="0.45">
-      <c r="C15" s="1">
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="18"/>
+    </row>
+    <row r="15" spans="1:28" s="7" customFormat="1" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B15" s="15"/>
+      <c r="C15" s="13">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F15" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="G15" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="C16" s="1">
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="19"/>
+      <c r="O15" s="21"/>
+      <c r="P15"/>
+      <c r="Q15"/>
+      <c r="R15"/>
+      <c r="S15"/>
+      <c r="T15"/>
+      <c r="U15"/>
+      <c r="V15"/>
+      <c r="W15"/>
+      <c r="X15"/>
+      <c r="Y15"/>
+      <c r="Z15"/>
+      <c r="AA15"/>
+      <c r="AB15"/>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.45">
+      <c r="C16" s="14">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F16" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="G16" s="3"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.45">
-      <c r="C17" s="1">
+      <c r="G16" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="20"/>
+    </row>
+    <row r="17" spans="2:28" x14ac:dyDescent="0.45">
+      <c r="C17" s="11">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
@@ -1298,17 +2017,19 @@
       <c r="F17" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G17" s="1"/>
+      <c r="G17" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.45">
-      <c r="C18" s="1">
+      <c r="N17" s="17"/>
+    </row>
+    <row r="18" spans="2:28" x14ac:dyDescent="0.45">
+      <c r="C18" s="11">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
@@ -1321,17 +2042,19 @@
       <c r="F18" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="G18" s="1"/>
+      <c r="G18" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.45">
-      <c r="C19" s="1">
+      <c r="N18" s="17"/>
+    </row>
+    <row r="19" spans="2:28" x14ac:dyDescent="0.45">
+      <c r="C19" s="11">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
@@ -1344,128 +2067,567 @@
       <c r="F19" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G19" s="1"/>
+      <c r="G19" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.45">
-      <c r="C20" s="1">
+      <c r="N19" s="17"/>
+    </row>
+    <row r="20" spans="2:28" x14ac:dyDescent="0.45">
+      <c r="C20" s="12">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E20" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="F20" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.45">
-      <c r="C21" s="1">
+      <c r="G20" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="18"/>
+    </row>
+    <row r="21" spans="2:28" s="7" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B21" s="15"/>
+      <c r="C21" s="13">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E21" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="F21" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.45">
-      <c r="C22" s="1">
+      <c r="G21" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="19"/>
+      <c r="O21" s="21"/>
+      <c r="P21"/>
+      <c r="Q21"/>
+      <c r="R21"/>
+      <c r="S21"/>
+      <c r="T21"/>
+      <c r="U21"/>
+      <c r="V21"/>
+      <c r="W21"/>
+      <c r="X21"/>
+      <c r="Y21"/>
+      <c r="Z21"/>
+      <c r="AA21"/>
+      <c r="AB21"/>
+    </row>
+    <row r="22" spans="2:28" x14ac:dyDescent="0.45">
+      <c r="C22" s="14">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.45">
-      <c r="C23" s="1">
+      <c r="D22" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="20"/>
+    </row>
+    <row r="23" spans="2:28" x14ac:dyDescent="0.45">
+      <c r="C23" s="11">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
+      <c r="D23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.45">
-      <c r="C24" s="1">
+      <c r="N23" s="17"/>
+    </row>
+    <row r="24" spans="2:28" x14ac:dyDescent="0.45">
+      <c r="C24" s="11">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
+      <c r="D24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.45">
-      <c r="C25" s="1">
+      <c r="N24" s="17"/>
+    </row>
+    <row r="25" spans="2:28" x14ac:dyDescent="0.45">
+      <c r="C25" s="11">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
+      <c r="D25" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
+      <c r="N25" s="17"/>
+    </row>
+    <row r="26" spans="2:28" x14ac:dyDescent="0.45">
+      <c r="C26" s="11">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="17"/>
+    </row>
+    <row r="27" spans="2:28" x14ac:dyDescent="0.45">
+      <c r="C27" s="11">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="17"/>
+    </row>
+    <row r="28" spans="2:28" s="7" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B28" s="15"/>
+      <c r="C28" s="13">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
+      <c r="M28" s="8"/>
+      <c r="N28" s="19"/>
+      <c r="O28" s="21"/>
+      <c r="P28"/>
+      <c r="Q28"/>
+      <c r="R28"/>
+      <c r="S28"/>
+      <c r="T28"/>
+      <c r="U28"/>
+      <c r="V28"/>
+      <c r="W28"/>
+      <c r="X28"/>
+      <c r="Y28"/>
+      <c r="Z28"/>
+      <c r="AA28"/>
+      <c r="AB28"/>
+    </row>
+    <row r="29" spans="2:28" x14ac:dyDescent="0.45">
+      <c r="C29" s="14">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="6"/>
+      <c r="N29" s="20"/>
+    </row>
+    <row r="30" spans="2:28" x14ac:dyDescent="0.45">
+      <c r="C30" s="11">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="17"/>
+    </row>
+    <row r="31" spans="2:28" x14ac:dyDescent="0.45">
+      <c r="C31" s="11">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="17"/>
+    </row>
+    <row r="32" spans="2:28" x14ac:dyDescent="0.45">
+      <c r="C32" s="11">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="17"/>
+    </row>
+    <row r="33" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="C33" s="11">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="17"/>
+    </row>
+    <row r="34" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="C34" s="11">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="17"/>
+    </row>
+    <row r="35" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="C35" s="11">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="17"/>
+    </row>
+    <row r="36" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="C36" s="11">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="17"/>
+    </row>
+    <row r="37" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="C37" s="11">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="17"/>
+    </row>
+    <row r="38" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="C38" s="11">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="17"/>
+    </row>
+    <row r="39" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="C39" s="11">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="17"/>
+    </row>
+    <row r="40" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="C40" s="11">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="17"/>
+    </row>
+    <row r="41" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="F41" t="s">
+        <v>83</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="42" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="F42" t="s">
+        <v>84</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="43" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="F43" t="s">
+        <v>85</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="44" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="F44" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="G44" s="24" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="45" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="F45" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="G45" s="24" t="s">
+        <v>102</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="C2:N14" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}"/>

--- a/doc/14_内部設計/03_ファイル構成一覧表_C2_パラパラチャーハン.xlsx
+++ b/doc/14_内部設計/03_ファイル構成一覧表_C2_パラパラチャーハン.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\C2\doc\14_内部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A3ABF21-9C9C-4CBD-82D9-66D357433AD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D00CB14-A363-4A58-8F47-9AD6EACDC220}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="372" windowWidth="12444" windowHeight="11988" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$2:$N$14</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$2:$N$16</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="132">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -765,19 +765,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>マニュアル更新削除画面用jsp。</t>
-    <rPh sb="5" eb="9">
-      <t>コウシンサクジョ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>ヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>アカウント更新削除画面用jsp。</t>
     <rPh sb="5" eb="7">
       <t>コウシン</t>
@@ -907,6 +894,196 @@
       <t>コウシンサクジョ</t>
     </rPh>
     <rPh sb="10" eb="13">
+      <t>ガメンヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ScheduleRegistServlrt</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ScheduleUpdateServlet</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タスク新規登録画面用jsp。</t>
+    <rPh sb="3" eb="5">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タスク更新削除画面用jsp。</t>
+    <rPh sb="3" eb="7">
+      <t>コウシンサクジョ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>javascript</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WebContent/js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>common.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全画面共通JavaScript。</t>
+    <rPh sb="0" eb="3">
+      <t>ゼンガメン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キョウツウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>login.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン画面用JavaScript。</t>
+    <rPh sb="4" eb="7">
+      <t>ガメンヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>result.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>結果画面用JavaScript。</t>
+    <rPh sb="0" eb="2">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ガメンヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>manual.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>manual_task.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マニュアル項目追加画面用JavaScript。</t>
+    <rPh sb="5" eb="7">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>ガメンヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タスクのマニュアル選択画面用JavaScript。</t>
+    <rPh sb="9" eb="11">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>ガメンヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WebContent/css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>common.css</t>
+  </si>
+  <si>
+    <t>全画面共通CSS。</t>
+    <rPh sb="0" eb="3">
+      <t>ゼンガメン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キョウツウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>login.css</t>
+  </si>
+  <si>
+    <t>ログイン画面用CSS。</t>
+    <rPh sb="4" eb="7">
+      <t>ガメンヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>manual.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>task.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>account.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>group.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マニュアル画面用CSS。</t>
+    <rPh sb="5" eb="8">
+      <t>ガメンヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タスク画面用CSS。</t>
+    <rPh sb="3" eb="6">
+      <t>ガメンヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント画面用CSS。</t>
+    <rPh sb="5" eb="8">
+      <t>ガメンヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>グループ画面用CSS。</t>
+    <rPh sb="4" eb="7">
       <t>ガメンヨウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -965,7 +1142,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -1165,13 +1342,46 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1244,10 +1454,28 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1564,10 +1792,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
-  <dimension ref="A1:AB45"/>
+  <dimension ref="A1:AB58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B21" zoomScale="71" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView tabSelected="1" topLeftCell="B34" zoomScale="71" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1584,14 +1812,14 @@
     <col min="15" max="15" width="8.796875" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>10</v>
       </c>
       <c r="B1"/>
       <c r="O1"/>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.45">
       <c r="C2" s="10" t="s">
         <v>0</v>
       </c>
@@ -1629,7 +1857,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:28" ht="36" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:15" ht="36" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -1657,12 +1885,12 @@
       <c r="M3" s="1"/>
       <c r="N3" s="17"/>
     </row>
-    <row r="4" spans="1:28" ht="36" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:15" ht="36" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="11">
-        <f t="shared" ref="C4:C40" si="0">ROW()-2</f>
+        <f t="shared" ref="C4:C52" si="0">ROW()-2</f>
         <v>2</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -1685,7 +1913,7 @@
       <c r="M4" s="1"/>
       <c r="N4" s="17"/>
     </row>
-    <row r="5" spans="1:28" ht="36" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:15" ht="36" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -1713,7 +1941,7 @@
       <c r="M5" s="1"/>
       <c r="N5" s="17"/>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
       <c r="C6" s="11">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1738,7 +1966,7 @@
       <c r="M6" s="1"/>
       <c r="N6" s="17"/>
     </row>
-    <row r="7" spans="1:28" ht="36" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:15" ht="36" x14ac:dyDescent="0.45">
       <c r="C7" s="11">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1763,7 +1991,7 @@
       <c r="M7" s="1"/>
       <c r="N7" s="17"/>
     </row>
-    <row r="8" spans="1:28" ht="36" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:15" ht="36" x14ac:dyDescent="0.45">
       <c r="C8" s="11">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1788,7 +2016,7 @@
       <c r="M8" s="1"/>
       <c r="N8" s="17"/>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
       <c r="C9" s="11">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1813,7 +2041,7 @@
       <c r="M9" s="1"/>
       <c r="N9" s="17"/>
     </row>
-    <row r="10" spans="1:28" ht="36" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:15" ht="36" x14ac:dyDescent="0.45">
       <c r="C10" s="11">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1838,7 +2066,7 @@
       <c r="M10" s="1"/>
       <c r="N10" s="17"/>
     </row>
-    <row r="11" spans="1:28" ht="36" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:15" ht="36" x14ac:dyDescent="0.45">
       <c r="C11" s="11">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1850,10 +2078,10 @@
         <v>16</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>25</v>
+        <v>102</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
@@ -1863,7 +2091,7 @@
       <c r="M11" s="1"/>
       <c r="N11" s="17"/>
     </row>
-    <row r="12" spans="1:28" ht="36" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:15" ht="36" x14ac:dyDescent="0.45">
       <c r="C12" s="11">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1875,10 +2103,10 @@
         <v>16</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>26</v>
+        <v>103</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
@@ -1888,7 +2116,7 @@
       <c r="M12" s="1"/>
       <c r="N12" s="17"/>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:15" ht="36" x14ac:dyDescent="0.45">
       <c r="C13" s="11">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1900,10 +2128,10 @@
         <v>16</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
@@ -1913,145 +2141,145 @@
       <c r="M13" s="1"/>
       <c r="N13" s="17"/>
     </row>
-    <row r="14" spans="1:28" ht="36" x14ac:dyDescent="0.45">
-      <c r="C14" s="12">
+    <row r="14" spans="1:15" ht="36" x14ac:dyDescent="0.45">
+      <c r="C14" s="11">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="F14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="17"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="C15" s="11">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="17"/>
+    </row>
+    <row r="16" spans="1:15" ht="36" x14ac:dyDescent="0.45">
+      <c r="C16" s="12">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="G16" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="18"/>
-    </row>
-    <row r="15" spans="1:28" s="7" customFormat="1" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B15" s="15"/>
-      <c r="C15" s="13">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="D15" s="8" t="s">
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="18"/>
+    </row>
+    <row r="17" spans="2:28" s="7" customFormat="1" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B17" s="15"/>
+      <c r="C17" s="13">
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="D17" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F15" s="8" t="s">
+      <c r="F17" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="G15" s="9" t="s">
+      <c r="G17" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="19"/>
-      <c r="O15" s="21"/>
-      <c r="P15"/>
-      <c r="Q15"/>
-      <c r="R15"/>
-      <c r="S15"/>
-      <c r="T15"/>
-      <c r="U15"/>
-      <c r="V15"/>
-      <c r="W15"/>
-      <c r="X15"/>
-      <c r="Y15"/>
-      <c r="Z15"/>
-      <c r="AA15"/>
-      <c r="AB15"/>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="C16" s="14">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="D16" s="6" t="s">
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="19"/>
+      <c r="O17" s="21"/>
+      <c r="P17"/>
+      <c r="Q17"/>
+      <c r="R17"/>
+      <c r="S17"/>
+      <c r="T17"/>
+      <c r="U17"/>
+      <c r="V17"/>
+      <c r="W17"/>
+      <c r="X17"/>
+      <c r="Y17"/>
+      <c r="Z17"/>
+      <c r="AA17"/>
+      <c r="AB17"/>
+    </row>
+    <row r="18" spans="2:28" x14ac:dyDescent="0.45">
+      <c r="C18" s="14">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="D18" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E18" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="F18" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="G16" s="6" t="s">
+      <c r="G18" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
-      <c r="N16" s="20"/>
-    </row>
-    <row r="17" spans="2:28" x14ac:dyDescent="0.45">
-      <c r="C17" s="11">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="17"/>
-    </row>
-    <row r="18" spans="2:28" x14ac:dyDescent="0.45">
-      <c r="C18" s="11">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="17"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="20"/>
     </row>
     <row r="19" spans="2:28" x14ac:dyDescent="0.45">
       <c r="C19" s="11">
@@ -2065,10 +2293,10 @@
         <v>40</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
@@ -2079,144 +2307,144 @@
       <c r="N19" s="17"/>
     </row>
     <row r="20" spans="2:28" x14ac:dyDescent="0.45">
-      <c r="C20" s="12">
+      <c r="C20" s="11">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E20" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F20" s="4" t="s">
+      <c r="F20" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="17"/>
+    </row>
+    <row r="21" spans="2:28" x14ac:dyDescent="0.45">
+      <c r="C21" s="11">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="17"/>
+    </row>
+    <row r="22" spans="2:28" x14ac:dyDescent="0.45">
+      <c r="C22" s="12">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F22" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="G20" s="4" t="s">
+      <c r="G22" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="18"/>
-    </row>
-    <row r="21" spans="2:28" s="7" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B21" s="15"/>
-      <c r="C21" s="13">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="D21" s="8" t="s">
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="18"/>
+    </row>
+    <row r="23" spans="2:28" s="7" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B23" s="15"/>
+      <c r="C23" s="13">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="D23" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E21" s="8" t="s">
+      <c r="E23" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="F21" s="8" t="s">
+      <c r="F23" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="G21" s="8" t="s">
+      <c r="G23" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="8"/>
-      <c r="N21" s="19"/>
-      <c r="O21" s="21"/>
-      <c r="P21"/>
-      <c r="Q21"/>
-      <c r="R21"/>
-      <c r="S21"/>
-      <c r="T21"/>
-      <c r="U21"/>
-      <c r="V21"/>
-      <c r="W21"/>
-      <c r="X21"/>
-      <c r="Y21"/>
-      <c r="Z21"/>
-      <c r="AA21"/>
-      <c r="AB21"/>
-    </row>
-    <row r="22" spans="2:28" x14ac:dyDescent="0.45">
-      <c r="C22" s="14">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="D22" s="6" t="s">
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="19"/>
+      <c r="O23" s="21"/>
+      <c r="P23"/>
+      <c r="Q23"/>
+      <c r="R23"/>
+      <c r="S23"/>
+      <c r="T23"/>
+      <c r="U23"/>
+      <c r="V23"/>
+      <c r="W23"/>
+      <c r="X23"/>
+      <c r="Y23"/>
+      <c r="Z23"/>
+      <c r="AA23"/>
+      <c r="AB23"/>
+    </row>
+    <row r="24" spans="2:28" x14ac:dyDescent="0.45">
+      <c r="C24" s="14">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="D24" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E22" s="6" t="s">
+      <c r="E24" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F22" s="6" t="s">
+      <c r="F24" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="G22" s="6" t="s">
+      <c r="G24" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
-      <c r="L22" s="6"/>
-      <c r="M22" s="6"/>
-      <c r="N22" s="20"/>
-    </row>
-    <row r="23" spans="2:28" x14ac:dyDescent="0.45">
-      <c r="C23" s="11">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
-      <c r="N23" s="17"/>
-    </row>
-    <row r="24" spans="2:28" x14ac:dyDescent="0.45">
-      <c r="C24" s="11">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="17"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="20"/>
     </row>
     <row r="25" spans="2:28" x14ac:dyDescent="0.45">
       <c r="C25" s="11">
@@ -2230,10 +2458,10 @@
         <v>53</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
@@ -2255,10 +2483,10 @@
         <v>53</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
@@ -2280,10 +2508,10 @@
         <v>53</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
@@ -2293,125 +2521,137 @@
       <c r="M27" s="1"/>
       <c r="N27" s="17"/>
     </row>
-    <row r="28" spans="2:28" s="7" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B28" s="15"/>
-      <c r="C28" s="13">
+    <row r="28" spans="2:28" x14ac:dyDescent="0.45">
+      <c r="C28" s="11">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="D28" s="8" t="s">
+      <c r="D28" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E28" s="8" t="s">
+      <c r="E28" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F28" s="8" t="s">
+      <c r="F28" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="17"/>
+    </row>
+    <row r="29" spans="2:28" x14ac:dyDescent="0.45">
+      <c r="C29" s="11">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="17"/>
+    </row>
+    <row r="30" spans="2:28" s="7" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B30" s="15"/>
+      <c r="C30" s="13">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="F30" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="G28" s="8" t="s">
+      <c r="G30" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
-      <c r="K28" s="8"/>
-      <c r="L28" s="8"/>
-      <c r="M28" s="8"/>
-      <c r="N28" s="19"/>
-      <c r="O28" s="21"/>
-      <c r="P28"/>
-      <c r="Q28"/>
-      <c r="R28"/>
-      <c r="S28"/>
-      <c r="T28"/>
-      <c r="U28"/>
-      <c r="V28"/>
-      <c r="W28"/>
-      <c r="X28"/>
-      <c r="Y28"/>
-      <c r="Z28"/>
-      <c r="AA28"/>
-      <c r="AB28"/>
-    </row>
-    <row r="29" spans="2:28" x14ac:dyDescent="0.45">
-      <c r="C29" s="14">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="D29" s="6" t="s">
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="8"/>
+      <c r="M30" s="8"/>
+      <c r="N30" s="19"/>
+      <c r="O30" s="21"/>
+      <c r="P30"/>
+      <c r="Q30"/>
+      <c r="R30"/>
+      <c r="S30"/>
+      <c r="T30"/>
+      <c r="U30"/>
+      <c r="V30"/>
+      <c r="W30"/>
+      <c r="X30"/>
+      <c r="Y30"/>
+      <c r="Z30"/>
+      <c r="AA30"/>
+      <c r="AB30"/>
+    </row>
+    <row r="31" spans="2:28" x14ac:dyDescent="0.45">
+      <c r="C31" s="14">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="D31" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="E29" s="6" t="s">
+      <c r="E31" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="F29" s="6" t="s">
+      <c r="F31" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="G29" s="6" t="s">
+      <c r="G31" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
-      <c r="J29" s="6"/>
-      <c r="K29" s="6"/>
-      <c r="L29" s="6"/>
-      <c r="M29" s="6"/>
-      <c r="N29" s="20"/>
-    </row>
-    <row r="30" spans="2:28" x14ac:dyDescent="0.45">
-      <c r="C30" s="11">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="G30" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
-      <c r="N30" s="17"/>
-    </row>
-    <row r="31" spans="2:28" x14ac:dyDescent="0.45">
-      <c r="C31" s="11">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G31" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
-      <c r="N31" s="17"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="6"/>
+      <c r="L31" s="6"/>
+      <c r="M31" s="6"/>
+      <c r="N31" s="20"/>
     </row>
     <row r="32" spans="2:28" x14ac:dyDescent="0.45">
       <c r="C32" s="11">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="22" t="s">
-        <v>74</v>
+      <c r="D32" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
@@ -2421,18 +2661,22 @@
       <c r="M32" s="1"/>
       <c r="N32" s="17"/>
     </row>
-    <row r="33" spans="3:14" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.45">
       <c r="C33" s="11">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="22" t="s">
-        <v>75</v>
+      <c r="D33" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
@@ -2442,18 +2686,22 @@
       <c r="M33" s="1"/>
       <c r="N33" s="17"/>
     </row>
-    <row r="34" spans="3:14" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.45">
       <c r="C34" s="11">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
+      <c r="D34" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>69</v>
+      </c>
       <c r="F34" s="22" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
@@ -2463,18 +2711,22 @@
       <c r="M34" s="1"/>
       <c r="N34" s="17"/>
     </row>
-    <row r="35" spans="3:14" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:15" x14ac:dyDescent="0.45">
       <c r="C35" s="11">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
+      <c r="D35" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>69</v>
+      </c>
       <c r="F35" s="22" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
@@ -2484,18 +2736,22 @@
       <c r="M35" s="1"/>
       <c r="N35" s="17"/>
     </row>
-    <row r="36" spans="3:14" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:15" x14ac:dyDescent="0.45">
       <c r="C36" s="11">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="23" t="s">
-        <v>78</v>
+      <c r="D36" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F36" s="22" t="s">
+        <v>76</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
@@ -2505,18 +2761,22 @@
       <c r="M36" s="1"/>
       <c r="N36" s="17"/>
     </row>
-    <row r="37" spans="3:14" x14ac:dyDescent="0.45">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.45">
       <c r="C37" s="11">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="23" t="s">
-        <v>79</v>
+      <c r="D37" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F37" s="22" t="s">
+        <v>77</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
@@ -2526,18 +2786,22 @@
       <c r="M37" s="1"/>
       <c r="N37" s="17"/>
     </row>
-    <row r="38" spans="3:14" x14ac:dyDescent="0.45">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.45">
       <c r="C38" s="11">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
+      <c r="D38" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>69</v>
+      </c>
       <c r="F38" s="23" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
@@ -2547,18 +2811,22 @@
       <c r="M38" s="1"/>
       <c r="N38" s="17"/>
     </row>
-    <row r="39" spans="3:14" x14ac:dyDescent="0.45">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.45">
       <c r="C39" s="11">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
+      <c r="D39" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>69</v>
+      </c>
       <c r="F39" s="23" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
@@ -2568,18 +2836,22 @@
       <c r="M39" s="1"/>
       <c r="N39" s="17"/>
     </row>
-    <row r="40" spans="3:14" x14ac:dyDescent="0.45">
+    <row r="40" spans="2:15" x14ac:dyDescent="0.45">
       <c r="C40" s="11">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1" t="s">
-        <v>82</v>
+      <c r="D40" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F40" s="23" t="s">
+        <v>80</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
@@ -2589,51 +2861,459 @@
       <c r="M40" s="1"/>
       <c r="N40" s="17"/>
     </row>
-    <row r="41" spans="3:14" x14ac:dyDescent="0.45">
-      <c r="F41" t="s">
+    <row r="41" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="C41" s="11">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F41" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="17"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="C42" s="11">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F42" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="G42" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="17"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="C43" s="11">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F43" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="G43" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4"/>
+      <c r="J43" s="4"/>
+      <c r="K43" s="4"/>
+      <c r="L43" s="4"/>
+      <c r="M43" s="4"/>
+      <c r="N43" s="18"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="C44" s="11">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="C45" s="11">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F45" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="G41" s="6" t="s">
+      <c r="G45" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="C46" s="11">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+    </row>
+    <row r="47" spans="2:15" s="28" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B47" s="15"/>
+      <c r="C47" s="8">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="D47" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="E47" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="F47" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="G47" s="8" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="42" spans="3:14" x14ac:dyDescent="0.45">
-      <c r="F42" t="s">
-        <v>84</v>
-      </c>
-      <c r="G42" s="6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="43" spans="3:14" x14ac:dyDescent="0.45">
-      <c r="F43" t="s">
-        <v>85</v>
-      </c>
-      <c r="G43" s="6" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="44" spans="3:14" x14ac:dyDescent="0.45">
-      <c r="F44" s="25" t="s">
-        <v>96</v>
-      </c>
-      <c r="G44" s="24" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="45" spans="3:14" x14ac:dyDescent="0.45">
-      <c r="F45" s="25" t="s">
-        <v>95</v>
-      </c>
-      <c r="G45" s="24" t="s">
-        <v>102</v>
-      </c>
+      <c r="H47" s="8"/>
+      <c r="I47" s="8"/>
+      <c r="J47" s="8"/>
+      <c r="K47" s="8"/>
+      <c r="L47" s="8"/>
+      <c r="M47" s="8"/>
+      <c r="N47" s="8"/>
+      <c r="O47" s="27"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="C48" s="6">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="F48" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="G48" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="H48" s="6"/>
+      <c r="I48" s="6"/>
+      <c r="J48" s="6"/>
+      <c r="K48" s="6"/>
+      <c r="L48" s="6"/>
+      <c r="M48" s="6"/>
+      <c r="N48" s="6"/>
+    </row>
+    <row r="49" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="C49" s="1">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
+    </row>
+    <row r="50" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="C50" s="1">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
+      <c r="M50" s="1"/>
+      <c r="N50" s="1"/>
+    </row>
+    <row r="51" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="C51" s="1">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F51" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
+    </row>
+    <row r="52" spans="2:15" s="28" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B52" s="15"/>
+      <c r="C52" s="8">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="D52" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="E52" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="F52" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="G52" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="H52" s="8"/>
+      <c r="I52" s="8"/>
+      <c r="J52" s="8"/>
+      <c r="K52" s="8"/>
+      <c r="L52" s="8"/>
+      <c r="M52" s="8"/>
+      <c r="N52" s="8"/>
+      <c r="O52" s="27"/>
+    </row>
+    <row r="53" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="C53" s="6">
+        <v>51</v>
+      </c>
+      <c r="D53" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="F53" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="G53" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="H53" s="6"/>
+      <c r="I53" s="6"/>
+      <c r="J53" s="6"/>
+      <c r="K53" s="6"/>
+      <c r="L53" s="6"/>
+      <c r="M53" s="6"/>
+      <c r="N53" s="6"/>
+    </row>
+    <row r="54" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="C54" s="6">
+        <v>52</v>
+      </c>
+      <c r="D54" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+      <c r="J54" s="1"/>
+      <c r="K54" s="1"/>
+      <c r="L54" s="1"/>
+      <c r="M54" s="1"/>
+      <c r="N54" s="1"/>
+    </row>
+    <row r="55" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="C55" s="6">
+        <v>53</v>
+      </c>
+      <c r="D55" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="E55" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="F55" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1"/>
+      <c r="K55" s="1"/>
+      <c r="L55" s="1"/>
+      <c r="M55" s="1"/>
+      <c r="N55" s="1"/>
+    </row>
+    <row r="56" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="C56" s="6">
+        <v>54</v>
+      </c>
+      <c r="D56" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="E56" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="F56" s="29" t="s">
+        <v>125</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1"/>
+      <c r="J56" s="1"/>
+      <c r="K56" s="1"/>
+      <c r="L56" s="1"/>
+      <c r="M56" s="1"/>
+      <c r="N56" s="1"/>
+    </row>
+    <row r="57" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="C57" s="6">
+        <v>55</v>
+      </c>
+      <c r="D57" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="E57" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="F57" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H57" s="1"/>
+      <c r="I57" s="1"/>
+      <c r="J57" s="1"/>
+      <c r="K57" s="1"/>
+      <c r="L57" s="1"/>
+      <c r="M57" s="1"/>
+      <c r="N57" s="1"/>
+    </row>
+    <row r="58" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="C58" s="6">
+        <v>56</v>
+      </c>
+      <c r="D58" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="E58" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="F58" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="H58" s="1"/>
+      <c r="I58" s="1"/>
+      <c r="J58" s="1"/>
+      <c r="K58" s="1"/>
+      <c r="L58" s="1"/>
+      <c r="M58" s="1"/>
+      <c r="N58" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="C2:N14" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}"/>
+  <autoFilter ref="C2:N16" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}"/>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="M3:M25" xr:uid="{65E47EFC-9CE3-4220-A319-C8241164C1FC}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="M3:M27" xr:uid="{65E47EFC-9CE3-4220-A319-C8241164C1FC}">
       <formula1>$A$2:$A$5</formula1>
     </dataValidation>
   </dataValidations>
@@ -2642,12 +3322,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100157231BE4AEE574CA53F7F6406B00885" ma:contentTypeVersion="5" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="dc5b9a23ce3d52c4956bed0e463d1dda">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f11e5c67-cf10-45fe-9586-3550a4dd026c" xmlns:ns4="01c64581-d9a7-4bf3-8493-a30fa4f21230" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7c0a2f94ac7d166380f87837b42de16b" ns3:_="" ns4:_="">
     <xsd:import namespace="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
@@ -2818,6 +3492,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -2828,23 +3508,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2863,6 +3526,23 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
   <ds:schemaRefs>

--- a/doc/14_内部設計/03_ファイル構成一覧表_C2_パラパラチャーハン.xlsx
+++ b/doc/14_内部設計/03_ファイル構成一覧表_C2_パラパラチャーハン.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\C2\doc\14_内部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D00CB14-A363-4A58-8F47-9AD6EACDC220}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32F6E3BC-8514-46D8-9240-85A5088311B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="138">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -1087,13 +1087,31 @@
       <t>ガメンヨウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>完了</t>
+  </si>
+  <si>
+    <t>勝間</t>
+  </si>
+  <si>
+    <t>松岡</t>
+  </si>
+  <si>
+    <t>増田</t>
+  </si>
+  <si>
+    <t>大戸</t>
+  </si>
+  <si>
+    <t>座間</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1109,8 +1127,14 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1141,8 +1165,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="20">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -1375,13 +1405,103 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1469,14 +1589,44 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="56" fontId="2" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="56" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="56" fontId="2" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="56" fontId="2" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="6" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="6" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1794,8 +1944,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
   <dimension ref="A1:AB58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B34" zoomScale="71" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="H41" sqref="H41"/>
+    <sheetView tabSelected="1" topLeftCell="C25" zoomScale="71" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2611,7 +2761,7 @@
       <c r="AA30"/>
       <c r="AB30"/>
     </row>
-    <row r="31" spans="2:28" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:28" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C31" s="14">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -2628,15 +2778,29 @@
       <c r="G31" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
-      <c r="J31" s="6"/>
-      <c r="K31" s="6"/>
-      <c r="L31" s="6"/>
-      <c r="M31" s="6"/>
-      <c r="N31" s="20"/>
-    </row>
-    <row r="32" spans="2:28" x14ac:dyDescent="0.45">
+      <c r="H31" s="29">
+        <v>45455</v>
+      </c>
+      <c r="I31" s="30">
+        <v>45455</v>
+      </c>
+      <c r="J31" s="29">
+        <v>45455</v>
+      </c>
+      <c r="K31" s="30">
+        <v>45455</v>
+      </c>
+      <c r="L31" s="38">
+        <v>1</v>
+      </c>
+      <c r="M31" s="33" t="s">
+        <v>132</v>
+      </c>
+      <c r="N31" s="34" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="32" spans="2:28" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C32" s="11">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -2653,15 +2817,29 @@
       <c r="G32" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
-      <c r="N32" s="17"/>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="H32" s="31">
+        <v>45455</v>
+      </c>
+      <c r="I32" s="32">
+        <v>45455</v>
+      </c>
+      <c r="J32" s="40">
+        <v>45455</v>
+      </c>
+      <c r="K32" s="41">
+        <v>45455</v>
+      </c>
+      <c r="L32" s="39">
+        <v>1</v>
+      </c>
+      <c r="M32" s="35" t="s">
+        <v>132</v>
+      </c>
+      <c r="N32" s="36" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C33" s="11">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -2678,15 +2856,29 @@
       <c r="G33" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
-      <c r="N33" s="17"/>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="H33" s="31">
+        <v>45455</v>
+      </c>
+      <c r="I33" s="32">
+        <v>45455</v>
+      </c>
+      <c r="J33" s="31">
+        <v>45455</v>
+      </c>
+      <c r="K33" s="32">
+        <v>45455</v>
+      </c>
+      <c r="L33" s="39">
+        <v>1</v>
+      </c>
+      <c r="M33" s="35" t="s">
+        <v>132</v>
+      </c>
+      <c r="N33" s="36" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C34" s="11">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -2703,15 +2895,29 @@
       <c r="G34" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
-      <c r="N34" s="17"/>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="H34" s="31">
+        <v>45455</v>
+      </c>
+      <c r="I34" s="32">
+        <v>45455</v>
+      </c>
+      <c r="J34" s="31">
+        <v>45455</v>
+      </c>
+      <c r="K34" s="32">
+        <v>45455</v>
+      </c>
+      <c r="L34" s="39">
+        <v>1</v>
+      </c>
+      <c r="M34" s="35" t="s">
+        <v>132</v>
+      </c>
+      <c r="N34" s="36" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C35" s="11">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -2728,15 +2934,29 @@
       <c r="G35" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
-      <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
-      <c r="N35" s="17"/>
-    </row>
-    <row r="36" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="H35" s="31">
+        <v>45455</v>
+      </c>
+      <c r="I35" s="32">
+        <v>45455</v>
+      </c>
+      <c r="J35" s="31">
+        <v>45455</v>
+      </c>
+      <c r="K35" s="32">
+        <v>45455</v>
+      </c>
+      <c r="L35" s="39">
+        <v>1</v>
+      </c>
+      <c r="M35" s="35" t="s">
+        <v>132</v>
+      </c>
+      <c r="N35" s="36" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="36" spans="2:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C36" s="11">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -2753,15 +2973,29 @@
       <c r="G36" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
-      <c r="L36" s="1"/>
-      <c r="M36" s="1"/>
-      <c r="N36" s="17"/>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="H36" s="31">
+        <v>45455</v>
+      </c>
+      <c r="I36" s="32">
+        <v>45455</v>
+      </c>
+      <c r="J36" s="31">
+        <v>45455</v>
+      </c>
+      <c r="K36" s="32">
+        <v>45455</v>
+      </c>
+      <c r="L36" s="39">
+        <v>1</v>
+      </c>
+      <c r="M36" s="35" t="s">
+        <v>132</v>
+      </c>
+      <c r="N36" s="36" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C37" s="11">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -2778,15 +3012,29 @@
       <c r="G37" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
-      <c r="L37" s="1"/>
-      <c r="M37" s="1"/>
-      <c r="N37" s="17"/>
-    </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="H37" s="31">
+        <v>45455</v>
+      </c>
+      <c r="I37" s="32">
+        <v>45455</v>
+      </c>
+      <c r="J37" s="31">
+        <v>45455</v>
+      </c>
+      <c r="K37" s="32">
+        <v>45455</v>
+      </c>
+      <c r="L37" s="39">
+        <v>1</v>
+      </c>
+      <c r="M37" s="35" t="s">
+        <v>132</v>
+      </c>
+      <c r="N37" s="36" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="38" spans="2:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C38" s="11">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -2803,15 +3051,29 @@
       <c r="G38" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
-      <c r="K38" s="1"/>
-      <c r="L38" s="1"/>
-      <c r="M38" s="1"/>
-      <c r="N38" s="17"/>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="H38" s="31">
+        <v>45455</v>
+      </c>
+      <c r="I38" s="32">
+        <v>45455</v>
+      </c>
+      <c r="J38" s="31">
+        <v>45455</v>
+      </c>
+      <c r="K38" s="32">
+        <v>45455</v>
+      </c>
+      <c r="L38" s="39">
+        <v>1</v>
+      </c>
+      <c r="M38" s="35" t="s">
+        <v>132</v>
+      </c>
+      <c r="N38" s="36" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C39" s="11">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -2828,15 +3090,29 @@
       <c r="G39" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
-      <c r="K39" s="1"/>
-      <c r="L39" s="1"/>
-      <c r="M39" s="1"/>
-      <c r="N39" s="17"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="H39" s="31">
+        <v>45455</v>
+      </c>
+      <c r="I39" s="32">
+        <v>45455</v>
+      </c>
+      <c r="J39" s="31">
+        <v>45455</v>
+      </c>
+      <c r="K39" s="32">
+        <v>45455</v>
+      </c>
+      <c r="L39" s="39">
+        <v>1</v>
+      </c>
+      <c r="M39" s="35" t="s">
+        <v>132</v>
+      </c>
+      <c r="N39" s="36" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="40" spans="2:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C40" s="11">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -2853,15 +3129,29 @@
       <c r="G40" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
-      <c r="K40" s="1"/>
-      <c r="L40" s="1"/>
-      <c r="M40" s="1"/>
-      <c r="N40" s="17"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="H40" s="31">
+        <v>45455</v>
+      </c>
+      <c r="I40" s="32">
+        <v>45455</v>
+      </c>
+      <c r="J40" s="31">
+        <v>45455</v>
+      </c>
+      <c r="K40" s="32">
+        <v>45455</v>
+      </c>
+      <c r="L40" s="39">
+        <v>1</v>
+      </c>
+      <c r="M40" s="35" t="s">
+        <v>132</v>
+      </c>
+      <c r="N40" s="36" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="41" spans="2:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C41" s="11">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -2878,15 +3168,29 @@
       <c r="G41" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
-      <c r="K41" s="1"/>
-      <c r="L41" s="1"/>
-      <c r="M41" s="1"/>
-      <c r="N41" s="17"/>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="H41" s="31">
+        <v>45455</v>
+      </c>
+      <c r="I41" s="32">
+        <v>45455</v>
+      </c>
+      <c r="J41" s="31">
+        <v>45455</v>
+      </c>
+      <c r="K41" s="32">
+        <v>45455</v>
+      </c>
+      <c r="L41" s="39">
+        <v>1</v>
+      </c>
+      <c r="M41" s="35" t="s">
+        <v>132</v>
+      </c>
+      <c r="N41" s="36" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C42" s="11">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -2903,15 +3207,29 @@
       <c r="G42" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
-      <c r="K42" s="1"/>
-      <c r="L42" s="1"/>
-      <c r="M42" s="1"/>
-      <c r="N42" s="17"/>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="H42" s="31">
+        <v>45455</v>
+      </c>
+      <c r="I42" s="32">
+        <v>45455</v>
+      </c>
+      <c r="J42" s="31">
+        <v>45455</v>
+      </c>
+      <c r="K42" s="32">
+        <v>45455</v>
+      </c>
+      <c r="L42" s="39">
+        <v>1</v>
+      </c>
+      <c r="M42" s="35" t="s">
+        <v>132</v>
+      </c>
+      <c r="N42" s="36" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C43" s="11">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -2928,15 +3246,29 @@
       <c r="G43" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="H43" s="4"/>
-      <c r="I43" s="4"/>
-      <c r="J43" s="4"/>
-      <c r="K43" s="4"/>
-      <c r="L43" s="4"/>
-      <c r="M43" s="4"/>
-      <c r="N43" s="18"/>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="H43" s="31">
+        <v>45455</v>
+      </c>
+      <c r="I43" s="32">
+        <v>45455</v>
+      </c>
+      <c r="J43" s="31">
+        <v>45455</v>
+      </c>
+      <c r="K43" s="32">
+        <v>45455</v>
+      </c>
+      <c r="L43" s="39">
+        <v>1</v>
+      </c>
+      <c r="M43" s="35" t="s">
+        <v>132</v>
+      </c>
+      <c r="N43" s="36" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C44" s="11">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -2953,15 +3285,29 @@
       <c r="G44" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="H44" s="1"/>
-      <c r="I44" s="1"/>
-      <c r="J44" s="1"/>
-      <c r="K44" s="1"/>
-      <c r="L44" s="1"/>
-      <c r="M44" s="1"/>
-      <c r="N44" s="1"/>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="H44" s="31">
+        <v>45455</v>
+      </c>
+      <c r="I44" s="32">
+        <v>45455</v>
+      </c>
+      <c r="J44" s="31">
+        <v>45455</v>
+      </c>
+      <c r="K44" s="32">
+        <v>45455</v>
+      </c>
+      <c r="L44" s="39">
+        <v>1</v>
+      </c>
+      <c r="M44" s="35" t="s">
+        <v>132</v>
+      </c>
+      <c r="N44" s="37" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C45" s="11">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -2978,15 +3324,29 @@
       <c r="G45" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="H45" s="1"/>
-      <c r="I45" s="1"/>
-      <c r="J45" s="1"/>
-      <c r="K45" s="1"/>
-      <c r="L45" s="1"/>
-      <c r="M45" s="1"/>
-      <c r="N45" s="1"/>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="H45" s="31">
+        <v>45455</v>
+      </c>
+      <c r="I45" s="32">
+        <v>45455</v>
+      </c>
+      <c r="J45" s="31">
+        <v>45455</v>
+      </c>
+      <c r="K45" s="32">
+        <v>45455</v>
+      </c>
+      <c r="L45" s="39">
+        <v>1</v>
+      </c>
+      <c r="M45" s="35" t="s">
+        <v>132</v>
+      </c>
+      <c r="N45" s="37" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C46" s="11">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -3003,15 +3363,29 @@
       <c r="G46" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="H46" s="1"/>
-      <c r="I46" s="1"/>
-      <c r="J46" s="1"/>
-      <c r="K46" s="1"/>
-      <c r="L46" s="1"/>
-      <c r="M46" s="1"/>
-      <c r="N46" s="1"/>
-    </row>
-    <row r="47" spans="2:15" s="28" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="H46" s="31">
+        <v>45455</v>
+      </c>
+      <c r="I46" s="32">
+        <v>45455</v>
+      </c>
+      <c r="J46" s="31">
+        <v>45455</v>
+      </c>
+      <c r="K46" s="32">
+        <v>45455</v>
+      </c>
+      <c r="L46" s="39">
+        <v>1</v>
+      </c>
+      <c r="M46" s="35" t="s">
+        <v>132</v>
+      </c>
+      <c r="N46" s="37" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" s="28" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B47" s="15"/>
       <c r="C47" s="8">
         <f t="shared" si="0"/>
@@ -3029,13 +3403,27 @@
       <c r="G47" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="H47" s="8"/>
-      <c r="I47" s="8"/>
-      <c r="J47" s="8"/>
-      <c r="K47" s="8"/>
-      <c r="L47" s="8"/>
-      <c r="M47" s="8"/>
-      <c r="N47" s="8"/>
+      <c r="H47" s="31">
+        <v>45455</v>
+      </c>
+      <c r="I47" s="32">
+        <v>45455</v>
+      </c>
+      <c r="J47" s="31">
+        <v>45455</v>
+      </c>
+      <c r="K47" s="32">
+        <v>45455</v>
+      </c>
+      <c r="L47" s="39">
+        <v>1</v>
+      </c>
+      <c r="M47" s="35" t="s">
+        <v>132</v>
+      </c>
+      <c r="N47" s="37" t="s">
+        <v>137</v>
+      </c>
       <c r="O47" s="27"/>
     </row>
     <row r="48" spans="2:15" x14ac:dyDescent="0.45">
@@ -3124,7 +3512,7 @@
       <c r="E51" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="F51" s="29" t="s">
+      <c r="F51" s="1" t="s">
         <v>114</v>
       </c>
       <c r="G51" s="1" t="s">
@@ -3150,7 +3538,7 @@
       <c r="E52" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="F52" s="31" t="s">
+      <c r="F52" s="8" t="s">
         <v>115</v>
       </c>
       <c r="G52" s="8" t="s">
@@ -3169,7 +3557,7 @@
       <c r="C53" s="6">
         <v>51</v>
       </c>
-      <c r="D53" s="30" t="s">
+      <c r="D53" s="6" t="s">
         <v>123</v>
       </c>
       <c r="E53" s="6" t="s">
@@ -3193,7 +3581,7 @@
       <c r="C54" s="6">
         <v>52</v>
       </c>
-      <c r="D54" s="30" t="s">
+      <c r="D54" s="6" t="s">
         <v>123</v>
       </c>
       <c r="E54" s="6" t="s">
@@ -3217,13 +3605,13 @@
       <c r="C55" s="6">
         <v>53</v>
       </c>
-      <c r="D55" s="30" t="s">
+      <c r="D55" s="6" t="s">
         <v>123</v>
       </c>
       <c r="E55" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="F55" s="29" t="s">
+      <c r="F55" s="1" t="s">
         <v>124</v>
       </c>
       <c r="G55" s="1" t="s">
@@ -3241,13 +3629,13 @@
       <c r="C56" s="6">
         <v>54</v>
       </c>
-      <c r="D56" s="30" t="s">
+      <c r="D56" s="6" t="s">
         <v>123</v>
       </c>
       <c r="E56" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="F56" s="29" t="s">
+      <c r="F56" s="1" t="s">
         <v>125</v>
       </c>
       <c r="G56" s="1" t="s">
@@ -3265,13 +3653,13 @@
       <c r="C57" s="6">
         <v>55</v>
       </c>
-      <c r="D57" s="30" t="s">
+      <c r="D57" s="6" t="s">
         <v>123</v>
       </c>
       <c r="E57" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="F57" s="29" t="s">
+      <c r="F57" s="1" t="s">
         <v>126</v>
       </c>
       <c r="G57" s="1" t="s">
@@ -3289,13 +3677,13 @@
       <c r="C58" s="6">
         <v>56</v>
       </c>
-      <c r="D58" s="30" t="s">
+      <c r="D58" s="6" t="s">
         <v>123</v>
       </c>
       <c r="E58" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="F58" s="29" t="s">
+      <c r="F58" s="1" t="s">
         <v>127</v>
       </c>
       <c r="G58" s="1" t="s">
@@ -3322,6 +3710,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100157231BE4AEE574CA53F7F6406B00885" ma:contentTypeVersion="5" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="dc5b9a23ce3d52c4956bed0e463d1dda">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f11e5c67-cf10-45fe-9586-3550a4dd026c" xmlns:ns4="01c64581-d9a7-4bf3-8493-a30fa4f21230" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7c0a2f94ac7d166380f87837b42de16b" ns3:_="" ns4:_="">
     <xsd:import namespace="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
@@ -3492,12 +3886,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -3508,6 +3896,23 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3526,23 +3931,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
   <ds:schemaRefs>

--- a/doc/14_内部設計/03_ファイル構成一覧表_C2_パラパラチャーハン.xlsx
+++ b/doc/14_内部設計/03_ファイル構成一覧表_C2_パラパラチャーハン.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\C2\doc\14_内部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32F6E3BC-8514-46D8-9240-85A5088311B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{281430E5-A469-4CD5-9B8D-6C409733F82B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="139">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -1105,6 +1105,9 @@
   </si>
   <si>
     <t>座間</t>
+  </si>
+  <si>
+    <t>未完了</t>
   </si>
 </sst>
 </file>
@@ -1501,7 +1504,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1616,17 +1619,35 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="2" fillId="6" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="6" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1942,10 +1963,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
-  <dimension ref="A1:AB58"/>
+  <dimension ref="A1:AB66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C25" zoomScale="71" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView tabSelected="1" topLeftCell="C34" zoomScale="71" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="O49" sqref="O49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2027,13 +2048,27 @@
       <c r="G3" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="17"/>
+      <c r="H3" s="40">
+        <v>45457</v>
+      </c>
+      <c r="I3" s="40">
+        <v>45457</v>
+      </c>
+      <c r="J3" s="40">
+        <v>45457</v>
+      </c>
+      <c r="K3" s="40">
+        <v>45457</v>
+      </c>
+      <c r="L3" s="41">
+        <v>1</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="N3" s="17" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="4" spans="1:15" ht="36" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
@@ -2055,13 +2090,27 @@
       <c r="G4" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="17"/>
+      <c r="H4" s="40">
+        <v>45457</v>
+      </c>
+      <c r="I4" s="40">
+        <v>45457</v>
+      </c>
+      <c r="J4" s="40">
+        <v>45460</v>
+      </c>
+      <c r="K4" s="40">
+        <v>45460</v>
+      </c>
+      <c r="L4" s="41">
+        <v>1</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="N4" s="17" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="5" spans="1:15" ht="36" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
@@ -2083,13 +2132,27 @@
       <c r="G5" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="17"/>
+      <c r="H5" s="40">
+        <v>45457</v>
+      </c>
+      <c r="I5" s="40">
+        <v>45457</v>
+      </c>
+      <c r="J5" s="40">
+        <v>45457</v>
+      </c>
+      <c r="K5" s="40">
+        <v>45457</v>
+      </c>
+      <c r="L5" s="41">
+        <v>1</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="N5" s="17" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.45">
       <c r="C6" s="11">
@@ -2108,13 +2171,27 @@
       <c r="G6" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="17"/>
+      <c r="H6" s="40">
+        <v>45457</v>
+      </c>
+      <c r="I6" s="40">
+        <v>45457</v>
+      </c>
+      <c r="J6" s="40">
+        <v>45457</v>
+      </c>
+      <c r="K6" s="40">
+        <v>45457</v>
+      </c>
+      <c r="L6" s="41">
+        <v>1</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="N6" s="17" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="7" spans="1:15" ht="36" x14ac:dyDescent="0.45">
       <c r="C7" s="11">
@@ -2133,13 +2210,27 @@
       <c r="G7" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="17"/>
+      <c r="H7" s="40">
+        <v>45457</v>
+      </c>
+      <c r="I7" s="40">
+        <v>45457</v>
+      </c>
+      <c r="J7" s="40">
+        <v>45457</v>
+      </c>
+      <c r="K7" s="40">
+        <v>45457</v>
+      </c>
+      <c r="L7" s="41">
+        <v>1</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="N7" s="17" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="8" spans="1:15" ht="36" x14ac:dyDescent="0.45">
       <c r="C8" s="11">
@@ -2158,13 +2249,27 @@
       <c r="G8" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="17"/>
+      <c r="H8" s="40">
+        <v>45457</v>
+      </c>
+      <c r="I8" s="40">
+        <v>45457</v>
+      </c>
+      <c r="J8" s="40">
+        <v>45457</v>
+      </c>
+      <c r="K8" s="40">
+        <v>45457</v>
+      </c>
+      <c r="L8" s="41">
+        <v>1</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="N8" s="17" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.45">
       <c r="C9" s="11">
@@ -2183,13 +2288,27 @@
       <c r="G9" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="17"/>
+      <c r="H9" s="40">
+        <v>45457</v>
+      </c>
+      <c r="I9" s="40">
+        <v>45457</v>
+      </c>
+      <c r="J9" s="40">
+        <v>45457</v>
+      </c>
+      <c r="K9" s="40">
+        <v>45457</v>
+      </c>
+      <c r="L9" s="41">
+        <v>1</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="N9" s="17" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="10" spans="1:15" ht="36" x14ac:dyDescent="0.45">
       <c r="C10" s="11">
@@ -2208,13 +2327,27 @@
       <c r="G10" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="17"/>
+      <c r="H10" s="40">
+        <v>45457</v>
+      </c>
+      <c r="I10" s="40">
+        <v>45457</v>
+      </c>
+      <c r="J10" s="40">
+        <v>45457</v>
+      </c>
+      <c r="K10" s="40">
+        <v>45457</v>
+      </c>
+      <c r="L10" s="41">
+        <v>1</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="N10" s="17" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="11" spans="1:15" ht="36" x14ac:dyDescent="0.45">
       <c r="C11" s="11">
@@ -2233,13 +2366,27 @@
       <c r="G11" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="17"/>
+      <c r="H11" s="40">
+        <v>45457</v>
+      </c>
+      <c r="I11" s="40">
+        <v>45457</v>
+      </c>
+      <c r="J11" s="40">
+        <v>45457</v>
+      </c>
+      <c r="K11" s="40">
+        <v>45457</v>
+      </c>
+      <c r="L11" s="41">
+        <v>1</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="N11" s="17" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="12" spans="1:15" ht="36" x14ac:dyDescent="0.45">
       <c r="C12" s="11">
@@ -2258,13 +2405,27 @@
       <c r="G12" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="17"/>
+      <c r="H12" s="40">
+        <v>45457</v>
+      </c>
+      <c r="I12" s="40">
+        <v>45457</v>
+      </c>
+      <c r="J12" s="40">
+        <v>45457</v>
+      </c>
+      <c r="K12" s="40">
+        <v>45457</v>
+      </c>
+      <c r="L12" s="41">
+        <v>1</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="N12" s="17" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="13" spans="1:15" ht="36" x14ac:dyDescent="0.45">
       <c r="C13" s="11">
@@ -2283,13 +2444,27 @@
       <c r="G13" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="17"/>
+      <c r="H13" s="40">
+        <v>45457</v>
+      </c>
+      <c r="I13" s="40">
+        <v>45457</v>
+      </c>
+      <c r="J13" s="40">
+        <v>45457</v>
+      </c>
+      <c r="K13" s="40">
+        <v>45457</v>
+      </c>
+      <c r="L13" s="41">
+        <v>1</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="N13" s="17" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="14" spans="1:15" ht="36" x14ac:dyDescent="0.45">
       <c r="C14" s="11">
@@ -2308,13 +2483,27 @@
       <c r="G14" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="17"/>
+      <c r="H14" s="40">
+        <v>45457</v>
+      </c>
+      <c r="I14" s="40">
+        <v>45457</v>
+      </c>
+      <c r="J14" s="40">
+        <v>45457</v>
+      </c>
+      <c r="K14" s="40">
+        <v>45457</v>
+      </c>
+      <c r="L14" s="41">
+        <v>1</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="N14" s="17" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.45">
       <c r="C15" s="11">
@@ -2333,13 +2522,27 @@
       <c r="G15" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="17"/>
+      <c r="H15" s="40">
+        <v>45457</v>
+      </c>
+      <c r="I15" s="40">
+        <v>45457</v>
+      </c>
+      <c r="J15" s="40">
+        <v>45457</v>
+      </c>
+      <c r="K15" s="40">
+        <v>45457</v>
+      </c>
+      <c r="L15" s="41">
+        <v>1</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="N15" s="17" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="16" spans="1:15" ht="36" x14ac:dyDescent="0.45">
       <c r="C16" s="12">
@@ -2358,13 +2561,27 @@
       <c r="G16" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="18"/>
+      <c r="H16" s="42">
+        <v>45457</v>
+      </c>
+      <c r="I16" s="42">
+        <v>45457</v>
+      </c>
+      <c r="J16" s="42">
+        <v>45457</v>
+      </c>
+      <c r="K16" s="42">
+        <v>45457</v>
+      </c>
+      <c r="L16" s="43">
+        <v>1</v>
+      </c>
+      <c r="M16" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="N16" s="18" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="17" spans="2:28" s="7" customFormat="1" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B17" s="15"/>
@@ -2384,13 +2601,27 @@
       <c r="G17" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="8"/>
-      <c r="N17" s="19"/>
+      <c r="H17" s="44">
+        <v>45457</v>
+      </c>
+      <c r="I17" s="44">
+        <v>45457</v>
+      </c>
+      <c r="J17" s="44">
+        <v>45457</v>
+      </c>
+      <c r="K17" s="44">
+        <v>45457</v>
+      </c>
+      <c r="L17" s="43">
+        <v>1</v>
+      </c>
+      <c r="M17" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="N17" s="19" t="s">
+        <v>133</v>
+      </c>
       <c r="O17" s="21"/>
       <c r="P17"/>
       <c r="Q17"/>
@@ -2423,13 +2654,27 @@
       <c r="G18" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
-      <c r="N18" s="20"/>
+      <c r="H18" s="45">
+        <v>45456</v>
+      </c>
+      <c r="I18" s="45">
+        <v>45456</v>
+      </c>
+      <c r="J18" s="45">
+        <v>45456</v>
+      </c>
+      <c r="K18" s="45">
+        <v>45456</v>
+      </c>
+      <c r="L18" s="43">
+        <v>1</v>
+      </c>
+      <c r="M18" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="N18" s="20" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="19" spans="2:28" x14ac:dyDescent="0.45">
       <c r="C19" s="11">
@@ -2448,13 +2693,27 @@
       <c r="G19" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="17"/>
+      <c r="H19" s="40">
+        <v>45456</v>
+      </c>
+      <c r="I19" s="40">
+        <v>45456</v>
+      </c>
+      <c r="J19" s="40">
+        <v>45456</v>
+      </c>
+      <c r="K19" s="40">
+        <v>45456</v>
+      </c>
+      <c r="L19" s="43">
+        <v>1</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="N19" s="17" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="20" spans="2:28" x14ac:dyDescent="0.45">
       <c r="C20" s="11">
@@ -2473,13 +2732,27 @@
       <c r="G20" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="17"/>
+      <c r="H20" s="40">
+        <v>45456</v>
+      </c>
+      <c r="I20" s="40">
+        <v>45456</v>
+      </c>
+      <c r="J20" s="40">
+        <v>45456</v>
+      </c>
+      <c r="K20" s="40">
+        <v>45456</v>
+      </c>
+      <c r="L20" s="43">
+        <v>1</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="N20" s="17" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="21" spans="2:28" x14ac:dyDescent="0.45">
       <c r="C21" s="11">
@@ -2498,13 +2771,27 @@
       <c r="G21" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="17"/>
+      <c r="H21" s="40">
+        <v>45456</v>
+      </c>
+      <c r="I21" s="40">
+        <v>45456</v>
+      </c>
+      <c r="J21" s="40">
+        <v>45456</v>
+      </c>
+      <c r="K21" s="40">
+        <v>45456</v>
+      </c>
+      <c r="L21" s="43">
+        <v>1</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="N21" s="17" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="22" spans="2:28" x14ac:dyDescent="0.45">
       <c r="C22" s="12">
@@ -2523,13 +2810,27 @@
       <c r="G22" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
-      <c r="M22" s="4"/>
-      <c r="N22" s="18"/>
+      <c r="H22" s="42">
+        <v>45456</v>
+      </c>
+      <c r="I22" s="42">
+        <v>45456</v>
+      </c>
+      <c r="J22" s="42">
+        <v>45456</v>
+      </c>
+      <c r="K22" s="42">
+        <v>45456</v>
+      </c>
+      <c r="L22" s="43">
+        <v>1</v>
+      </c>
+      <c r="M22" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="N22" s="18" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="23" spans="2:28" s="7" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B23" s="15"/>
@@ -2549,13 +2850,27 @@
       <c r="G23" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
-      <c r="M23" s="8"/>
-      <c r="N23" s="19"/>
+      <c r="H23" s="44">
+        <v>45456</v>
+      </c>
+      <c r="I23" s="44">
+        <v>45456</v>
+      </c>
+      <c r="J23" s="44">
+        <v>45456</v>
+      </c>
+      <c r="K23" s="44">
+        <v>45456</v>
+      </c>
+      <c r="L23" s="43">
+        <v>1</v>
+      </c>
+      <c r="M23" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="N23" s="19" t="s">
+        <v>133</v>
+      </c>
       <c r="O23" s="21"/>
       <c r="P23"/>
       <c r="Q23"/>
@@ -2588,13 +2903,27 @@
       <c r="G24" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="6"/>
-      <c r="L24" s="6"/>
-      <c r="M24" s="6"/>
-      <c r="N24" s="20"/>
+      <c r="H24" s="45">
+        <v>45456</v>
+      </c>
+      <c r="I24" s="45">
+        <v>45456</v>
+      </c>
+      <c r="J24" s="45">
+        <v>45456</v>
+      </c>
+      <c r="K24" s="45">
+        <v>45456</v>
+      </c>
+      <c r="L24" s="43">
+        <v>1</v>
+      </c>
+      <c r="M24" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="N24" s="20" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="25" spans="2:28" x14ac:dyDescent="0.45">
       <c r="C25" s="11">
@@ -2613,13 +2942,27 @@
       <c r="G25" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="17"/>
+      <c r="H25" s="40">
+        <v>45456</v>
+      </c>
+      <c r="I25" s="40">
+        <v>45456</v>
+      </c>
+      <c r="J25" s="40">
+        <v>45456</v>
+      </c>
+      <c r="K25" s="40">
+        <v>45456</v>
+      </c>
+      <c r="L25" s="43">
+        <v>1</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="N25" s="17" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="26" spans="2:28" x14ac:dyDescent="0.45">
       <c r="C26" s="11">
@@ -2638,13 +2981,27 @@
       <c r="G26" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="17"/>
+      <c r="H26" s="40">
+        <v>45456</v>
+      </c>
+      <c r="I26" s="40">
+        <v>45456</v>
+      </c>
+      <c r="J26" s="40">
+        <v>45456</v>
+      </c>
+      <c r="K26" s="40">
+        <v>45456</v>
+      </c>
+      <c r="L26" s="43">
+        <v>1</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="N26" s="17" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="27" spans="2:28" x14ac:dyDescent="0.45">
       <c r="C27" s="11">
@@ -2663,13 +3020,27 @@
       <c r="G27" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
-      <c r="N27" s="17"/>
+      <c r="H27" s="40">
+        <v>45456</v>
+      </c>
+      <c r="I27" s="40">
+        <v>45456</v>
+      </c>
+      <c r="J27" s="40">
+        <v>45456</v>
+      </c>
+      <c r="K27" s="40">
+        <v>45456</v>
+      </c>
+      <c r="L27" s="43">
+        <v>1</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="N27" s="17" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="28" spans="2:28" x14ac:dyDescent="0.45">
       <c r="C28" s="11">
@@ -2688,13 +3059,27 @@
       <c r="G28" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
-      <c r="N28" s="17"/>
+      <c r="H28" s="40">
+        <v>45456</v>
+      </c>
+      <c r="I28" s="40">
+        <v>45456</v>
+      </c>
+      <c r="J28" s="40">
+        <v>45456</v>
+      </c>
+      <c r="K28" s="40">
+        <v>45456</v>
+      </c>
+      <c r="L28" s="43">
+        <v>1</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="N28" s="17" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="29" spans="2:28" x14ac:dyDescent="0.45">
       <c r="C29" s="11">
@@ -2713,13 +3098,27 @@
       <c r="G29" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
-      <c r="N29" s="17"/>
+      <c r="H29" s="40">
+        <v>45456</v>
+      </c>
+      <c r="I29" s="40">
+        <v>45456</v>
+      </c>
+      <c r="J29" s="40">
+        <v>45456</v>
+      </c>
+      <c r="K29" s="40">
+        <v>45456</v>
+      </c>
+      <c r="L29" s="43">
+        <v>1</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="N29" s="17" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="30" spans="2:28" s="7" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B30" s="15"/>
@@ -2739,13 +3138,27 @@
       <c r="G30" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="8"/>
-      <c r="K30" s="8"/>
-      <c r="L30" s="8"/>
-      <c r="M30" s="8"/>
-      <c r="N30" s="19"/>
+      <c r="H30" s="44">
+        <v>45456</v>
+      </c>
+      <c r="I30" s="44">
+        <v>45456</v>
+      </c>
+      <c r="J30" s="44">
+        <v>45456</v>
+      </c>
+      <c r="K30" s="44">
+        <v>45456</v>
+      </c>
+      <c r="L30" s="43">
+        <v>1</v>
+      </c>
+      <c r="M30" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="N30" s="19" t="s">
+        <v>134</v>
+      </c>
       <c r="O30" s="21"/>
       <c r="P30"/>
       <c r="Q30"/>
@@ -2790,7 +3203,7 @@
       <c r="K31" s="30">
         <v>45455</v>
       </c>
-      <c r="L31" s="38">
+      <c r="L31" s="43">
         <v>1</v>
       </c>
       <c r="M31" s="33" t="s">
@@ -2823,13 +3236,13 @@
       <c r="I32" s="32">
         <v>45455</v>
       </c>
-      <c r="J32" s="40">
-        <v>45455</v>
-      </c>
-      <c r="K32" s="41">
-        <v>45455</v>
-      </c>
-      <c r="L32" s="39">
+      <c r="J32" s="38">
+        <v>45455</v>
+      </c>
+      <c r="K32" s="39">
+        <v>45455</v>
+      </c>
+      <c r="L32" s="43">
         <v>1</v>
       </c>
       <c r="M32" s="35" t="s">
@@ -2868,7 +3281,7 @@
       <c r="K33" s="32">
         <v>45455</v>
       </c>
-      <c r="L33" s="39">
+      <c r="L33" s="43">
         <v>1</v>
       </c>
       <c r="M33" s="35" t="s">
@@ -2907,7 +3320,7 @@
       <c r="K34" s="32">
         <v>45455</v>
       </c>
-      <c r="L34" s="39">
+      <c r="L34" s="43">
         <v>1</v>
       </c>
       <c r="M34" s="35" t="s">
@@ -2946,7 +3359,7 @@
       <c r="K35" s="32">
         <v>45455</v>
       </c>
-      <c r="L35" s="39">
+      <c r="L35" s="43">
         <v>1</v>
       </c>
       <c r="M35" s="35" t="s">
@@ -2985,7 +3398,7 @@
       <c r="K36" s="32">
         <v>45455</v>
       </c>
-      <c r="L36" s="39">
+      <c r="L36" s="43">
         <v>1</v>
       </c>
       <c r="M36" s="35" t="s">
@@ -3024,7 +3437,7 @@
       <c r="K37" s="32">
         <v>45455</v>
       </c>
-      <c r="L37" s="39">
+      <c r="L37" s="43">
         <v>1</v>
       </c>
       <c r="M37" s="35" t="s">
@@ -3063,7 +3476,7 @@
       <c r="K38" s="32">
         <v>45455</v>
       </c>
-      <c r="L38" s="39">
+      <c r="L38" s="43">
         <v>1</v>
       </c>
       <c r="M38" s="35" t="s">
@@ -3102,7 +3515,7 @@
       <c r="K39" s="32">
         <v>45455</v>
       </c>
-      <c r="L39" s="39">
+      <c r="L39" s="43">
         <v>1</v>
       </c>
       <c r="M39" s="35" t="s">
@@ -3141,7 +3554,7 @@
       <c r="K40" s="32">
         <v>45455</v>
       </c>
-      <c r="L40" s="39">
+      <c r="L40" s="43">
         <v>1</v>
       </c>
       <c r="M40" s="35" t="s">
@@ -3180,7 +3593,7 @@
       <c r="K41" s="32">
         <v>45455</v>
       </c>
-      <c r="L41" s="39">
+      <c r="L41" s="43">
         <v>1</v>
       </c>
       <c r="M41" s="35" t="s">
@@ -3219,7 +3632,7 @@
       <c r="K42" s="32">
         <v>45455</v>
       </c>
-      <c r="L42" s="39">
+      <c r="L42" s="43">
         <v>1</v>
       </c>
       <c r="M42" s="35" t="s">
@@ -3258,7 +3671,7 @@
       <c r="K43" s="32">
         <v>45455</v>
       </c>
-      <c r="L43" s="39">
+      <c r="L43" s="43">
         <v>1</v>
       </c>
       <c r="M43" s="35" t="s">
@@ -3297,7 +3710,7 @@
       <c r="K44" s="32">
         <v>45455</v>
       </c>
-      <c r="L44" s="39">
+      <c r="L44" s="43">
         <v>1</v>
       </c>
       <c r="M44" s="35" t="s">
@@ -3336,7 +3749,7 @@
       <c r="K45" s="32">
         <v>45455</v>
       </c>
-      <c r="L45" s="39">
+      <c r="L45" s="43">
         <v>1</v>
       </c>
       <c r="M45" s="35" t="s">
@@ -3375,7 +3788,7 @@
       <c r="K46" s="32">
         <v>45455</v>
       </c>
-      <c r="L46" s="39">
+      <c r="L46" s="43">
         <v>1</v>
       </c>
       <c r="M46" s="35" t="s">
@@ -3415,7 +3828,7 @@
       <c r="K47" s="32">
         <v>45455</v>
       </c>
-      <c r="L47" s="39">
+      <c r="L47" s="43">
         <v>1</v>
       </c>
       <c r="M47" s="35" t="s">
@@ -3443,13 +3856,21 @@
       <c r="G48" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="H48" s="6"/>
+      <c r="H48" s="45">
+        <v>45461</v>
+      </c>
       <c r="I48" s="6"/>
       <c r="J48" s="6"/>
       <c r="K48" s="6"/>
-      <c r="L48" s="6"/>
-      <c r="M48" s="6"/>
-      <c r="N48" s="6"/>
+      <c r="L48" s="43">
+        <v>1</v>
+      </c>
+      <c r="M48" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="N48" s="6" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="49" spans="2:15" x14ac:dyDescent="0.45">
       <c r="C49" s="1">
@@ -3468,13 +3889,23 @@
       <c r="G49" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="H49" s="1"/>
+      <c r="H49" s="40">
+        <v>45461</v>
+      </c>
       <c r="I49" s="1"/>
-      <c r="J49" s="1"/>
+      <c r="J49" s="40">
+        <v>45460</v>
+      </c>
       <c r="K49" s="1"/>
-      <c r="L49" s="1"/>
-      <c r="M49" s="1"/>
-      <c r="N49" s="1"/>
+      <c r="L49" s="43">
+        <v>1</v>
+      </c>
+      <c r="M49" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="N49" s="1" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="50" spans="2:15" x14ac:dyDescent="0.45">
       <c r="C50" s="1">
@@ -3493,13 +3924,25 @@
       <c r="G50" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="H50" s="1"/>
+      <c r="H50" s="40">
+        <v>45461</v>
+      </c>
       <c r="I50" s="1"/>
-      <c r="J50" s="1"/>
-      <c r="K50" s="1"/>
-      <c r="L50" s="1"/>
-      <c r="M50" s="1"/>
-      <c r="N50" s="1"/>
+      <c r="J50" s="40">
+        <v>45460</v>
+      </c>
+      <c r="K50" s="40">
+        <v>45461</v>
+      </c>
+      <c r="L50" s="43">
+        <v>1</v>
+      </c>
+      <c r="M50" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="N50" s="1" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="51" spans="2:15" x14ac:dyDescent="0.45">
       <c r="C51" s="1">
@@ -3518,13 +3961,21 @@
       <c r="G51" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="H51" s="1"/>
+      <c r="H51" s="40">
+        <v>45461</v>
+      </c>
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
-      <c r="L51" s="1"/>
-      <c r="M51" s="1"/>
-      <c r="N51" s="1"/>
+      <c r="L51" s="43">
+        <v>1</v>
+      </c>
+      <c r="M51" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="N51" s="1" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="52" spans="2:15" s="28" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B52" s="15"/>
@@ -3544,11 +3995,15 @@
       <c r="G52" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="H52" s="8"/>
+      <c r="H52" s="44">
+        <v>45461</v>
+      </c>
       <c r="I52" s="8"/>
       <c r="J52" s="8"/>
       <c r="K52" s="8"/>
-      <c r="L52" s="8"/>
+      <c r="L52" s="43">
+        <v>1</v>
+      </c>
       <c r="M52" s="8"/>
       <c r="N52" s="8"/>
       <c r="O52" s="27"/>
@@ -3569,13 +4024,21 @@
       <c r="G53" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="H53" s="6"/>
+      <c r="H53" s="45">
+        <v>45461</v>
+      </c>
       <c r="I53" s="6"/>
       <c r="J53" s="6"/>
       <c r="K53" s="6"/>
-      <c r="L53" s="6"/>
-      <c r="M53" s="6"/>
-      <c r="N53" s="6"/>
+      <c r="L53" s="43">
+        <v>1</v>
+      </c>
+      <c r="M53" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="N53" s="6" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="54" spans="2:15" x14ac:dyDescent="0.45">
       <c r="C54" s="6">
@@ -3593,13 +4056,25 @@
       <c r="G54" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="H54" s="1"/>
-      <c r="I54" s="1"/>
-      <c r="J54" s="1"/>
+      <c r="H54" s="40">
+        <v>45461</v>
+      </c>
+      <c r="I54" s="40">
+        <v>45462</v>
+      </c>
+      <c r="J54" s="40">
+        <v>45461</v>
+      </c>
       <c r="K54" s="1"/>
-      <c r="L54" s="1"/>
-      <c r="M54" s="1"/>
-      <c r="N54" s="1"/>
+      <c r="L54" s="43">
+        <v>1</v>
+      </c>
+      <c r="M54" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="N54" s="1" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="55" spans="2:15" x14ac:dyDescent="0.45">
       <c r="C55" s="6">
@@ -3617,13 +4092,27 @@
       <c r="G55" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="H55" s="1"/>
-      <c r="I55" s="1"/>
-      <c r="J55" s="1"/>
-      <c r="K55" s="1"/>
-      <c r="L55" s="1"/>
-      <c r="M55" s="1"/>
-      <c r="N55" s="1"/>
+      <c r="H55" s="40">
+        <v>45461</v>
+      </c>
+      <c r="I55" s="40">
+        <v>45462</v>
+      </c>
+      <c r="J55" s="40">
+        <v>45460</v>
+      </c>
+      <c r="K55" s="40">
+        <v>45461</v>
+      </c>
+      <c r="L55" s="43">
+        <v>1</v>
+      </c>
+      <c r="M55" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="N55" s="1" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="56" spans="2:15" x14ac:dyDescent="0.45">
       <c r="C56" s="6">
@@ -3641,13 +4130,25 @@
       <c r="G56" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="H56" s="1"/>
-      <c r="I56" s="1"/>
-      <c r="J56" s="1"/>
+      <c r="H56" s="40">
+        <v>45461</v>
+      </c>
+      <c r="I56" s="40">
+        <v>45462</v>
+      </c>
+      <c r="J56" s="40">
+        <v>45463</v>
+      </c>
       <c r="K56" s="1"/>
-      <c r="L56" s="1"/>
-      <c r="M56" s="1"/>
-      <c r="N56" s="1"/>
+      <c r="L56" s="43">
+        <v>1</v>
+      </c>
+      <c r="M56" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="N56" s="1" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="57" spans="2:15" x14ac:dyDescent="0.45">
       <c r="C57" s="6">
@@ -3665,13 +4166,23 @@
       <c r="G57" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="H57" s="1"/>
-      <c r="I57" s="1"/>
+      <c r="H57" s="40">
+        <v>45461</v>
+      </c>
+      <c r="I57" s="40">
+        <v>45462</v>
+      </c>
       <c r="J57" s="1"/>
       <c r="K57" s="1"/>
-      <c r="L57" s="1"/>
-      <c r="M57" s="1"/>
-      <c r="N57" s="1"/>
+      <c r="L57" s="43">
+        <v>1</v>
+      </c>
+      <c r="M57" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="N57" s="1" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="58" spans="2:15" x14ac:dyDescent="0.45">
       <c r="C58" s="6">
@@ -3693,9 +4204,63 @@
       <c r="I58" s="1"/>
       <c r="J58" s="1"/>
       <c r="K58" s="1"/>
-      <c r="L58" s="1"/>
-      <c r="M58" s="1"/>
-      <c r="N58" s="1"/>
+      <c r="L58" s="43">
+        <v>1</v>
+      </c>
+      <c r="M58" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="N58" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="59" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="H59" s="46"/>
+      <c r="I59" s="46"/>
+      <c r="J59" s="46"/>
+      <c r="L59" s="47"/>
+    </row>
+    <row r="60" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="H60" s="46"/>
+      <c r="I60" s="46"/>
+    </row>
+    <row r="61" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="H61" s="46"/>
+      <c r="I61" s="46"/>
+    </row>
+    <row r="62" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="H62" s="46"/>
+      <c r="I62" s="46"/>
+      <c r="J62" s="46"/>
+      <c r="K62" s="46"/>
+      <c r="L62" s="47"/>
+    </row>
+    <row r="63" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="H63" s="46"/>
+      <c r="I63" s="46"/>
+      <c r="J63" s="46"/>
+      <c r="K63" s="46"/>
+      <c r="L63" s="47"/>
+    </row>
+    <row r="64" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="H64" s="46"/>
+      <c r="I64" s="46"/>
+      <c r="J64" s="46"/>
+      <c r="K64" s="46"/>
+      <c r="L64" s="47"/>
+    </row>
+    <row r="65" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="H65" s="46"/>
+      <c r="I65" s="46"/>
+      <c r="J65" s="46"/>
+      <c r="K65" s="46"/>
+      <c r="L65" s="47"/>
+    </row>
+    <row r="66" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="H66" s="46"/>
+      <c r="I66" s="46"/>
+      <c r="J66" s="46"/>
+      <c r="L66" s="47"/>
     </row>
   </sheetData>
   <autoFilter ref="C2:N16" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}"/>
@@ -3706,16 +4271,11 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100157231BE4AEE574CA53F7F6406B00885" ma:contentTypeVersion="5" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="dc5b9a23ce3d52c4956bed0e463d1dda">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f11e5c67-cf10-45fe-9586-3550a4dd026c" xmlns:ns4="01c64581-d9a7-4bf3-8493-a30fa4f21230" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7c0a2f94ac7d166380f87837b42de16b" ns3:_="" ns4:_="">
     <xsd:import namespace="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
@@ -3886,6 +4446,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -3896,23 +4462,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3931,6 +4480,23 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
   <ds:schemaRefs>
